--- a/Base/Teams/Dolphins/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Dolphins/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="C2">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="C2">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Dolphins/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Dolphins/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C2">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="C2">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>7</v>

--- a/Base/Teams/Dolphins/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Dolphins/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C3">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>0</v>

--- a/Base/Teams/Dolphins/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Dolphins/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="C3">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>3</v>

--- a/Base/Teams/Dolphins/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Dolphins/2021 Target Depth Data.xlsx
@@ -427,13 +427,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="C2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>18</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="C2">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>3</v>
